--- a/posesiones/1381291.xlsx
+++ b/posesiones/1381291.xlsx
@@ -1835,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>21</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>17</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>22</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>27</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>13</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>18</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>21</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>20</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>37</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>14</v>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>20</v>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>27</v>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>27</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3735,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>13</v>
@@ -3788,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>15</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>5</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R45">
         <v>18</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>19</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51">
         <v>5</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>24</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>20</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>6</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R58">
         <v>17</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4700,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R60">
         <v>14</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>12</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>23</v>
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R74">
         <v>13</v>
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R75">
         <v>21</v>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R76">
         <v>22</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5588,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R78">
         <v>21</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R86">
         <v>3</v>
@@ -6017,10 +6017,10 @@
         <v>1</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6155,10 +6155,10 @@
         <v>1</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R93">
         <v>15</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R94">
         <v>15</v>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <v>19</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R97">
         <v>7</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6746,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R102">
         <v>9</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R104">
         <v>21</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R107">
         <v>36</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R109">
         <v>17</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R113">
         <v>12</v>
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R114">
         <v>19</v>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R126">
         <v>34</v>
@@ -7969,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R127">
         <v>17</v>
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R128">
         <v>21</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R130">
         <v>17</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8266,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R134">
         <v>23</v>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R136">
         <v>7</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R138">
         <v>21</v>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R139">
         <v>15</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R147">
         <v>25</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R152">
         <v>13</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9348,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R155">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9689,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R162">
         <v>13</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R166">
         <v>0</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R169">
         <v>28</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10227,7 +10227,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R173">
         <v>26</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10330,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R175">
         <v>8</v>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10430,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R177">
         <v>14</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10724,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R183">
         <v>29</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10871,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11015,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R189">
         <v>5</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11115,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R191">
         <v>21</v>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11218,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R193">
         <v>6</v>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11597,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R204">
         <v>35</v>
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12076,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12173,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R213">
         <v>22</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12276,7 +12276,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R215">
         <v>25</v>
@@ -12332,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R216">
         <v>0</v>
@@ -12376,10 +12376,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12420,10 +12420,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R219">
         <v>16</v>
@@ -12523,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12570,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R223">
         <v>31</v>
@@ -12723,7 +12723,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R224">
         <v>19</v>
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R226">
         <v>23</v>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12923,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R229">
         <v>30</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13217,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R234">
         <v>24</v>
@@ -13270,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13364,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R238">
         <v>25</v>
@@ -13464,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13514,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R240">
         <v>16</v>
@@ -13567,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R241">
         <v>17</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13667,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>14</v>
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13858,7 +13858,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13905,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13952,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14052,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R251">
         <v>6</v>
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14196,7 +14196,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R254">
         <v>18</v>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14293,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14434,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14531,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R261">
         <v>11</v>
@@ -14584,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R262">
         <v>9</v>
@@ -14634,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14684,7 +14684,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R264">
         <v>5</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R266">
         <v>7</v>
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14887,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R268">
         <v>17</v>
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15040,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R271">
         <v>13</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R277">
         <v>22</v>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15425,7 +15425,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R280">
         <v>0</v>
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15619,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15716,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R285">
         <v>10</v>
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15813,7 +15813,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R287">
         <v>2</v>
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R290">
         <v>35</v>
@@ -16013,7 +16013,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R291">
         <v>19</v>
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16163,7 +16163,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R294">
         <v>15</v>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16307,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16357,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R298">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16551,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16645,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16695,7 +16695,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R305">
         <v>23</v>
@@ -16748,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R306">
         <v>18</v>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16989,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17039,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R312">
         <v>24</v>
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17139,7 +17139,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R317">
         <v>2</v>
@@ -17336,7 +17336,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R318">
         <v>19</v>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17439,7 +17439,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R320">
         <v>16</v>
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17542,7 +17542,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R322">
         <v>13</v>
@@ -17592,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17736,7 +17736,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R326">
         <v>25</v>
@@ -17789,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17839,7 +17839,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R328">
         <v>7</v>
@@ -17889,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18130,7 +18130,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R334">
         <v>1</v>
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18233,7 +18233,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R336">
         <v>14</v>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18333,7 +18333,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18427,7 +18427,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R341">
         <v>10</v>
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18580,7 +18580,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R343">
         <v>2</v>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18677,7 +18677,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18730,7 +18730,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R346">
         <v>5</v>
@@ -18774,10 +18774,10 @@
         <v>1</v>
       </c>
       <c r="P347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18918,7 +18918,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19006,10 +19006,10 @@
         <v>1</v>
       </c>
       <c r="P352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19056,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19150,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19197,7 +19197,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R358">
         <v>25</v>
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19394,7 +19394,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19444,7 +19444,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R361">
         <v>17</v>
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19594,7 +19594,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R364">
         <v>20</v>
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19694,7 +19694,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R366">
         <v>20</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19797,7 +19797,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R368">
         <v>7</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19897,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19947,7 +19947,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R371">
         <v>19</v>
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20047,7 +20047,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R373">
         <v>21</v>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20144,7 +20144,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20191,7 +20191,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20238,7 +20238,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20285,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20335,7 +20335,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R379">
         <v>21</v>
@@ -20385,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20482,7 +20482,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R382">
         <v>22</v>
@@ -20532,7 +20532,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20579,7 +20579,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20632,7 +20632,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R385">
         <v>21</v>
@@ -20682,7 +20682,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20732,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R387">
         <v>19</v>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20829,7 +20829,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20970,7 +20970,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21020,7 +21020,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21070,7 +21070,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R394">
         <v>26</v>
@@ -21120,7 +21120,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21167,7 +21167,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21217,7 +21217,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R397">
         <v>0</v>
@@ -21270,7 +21270,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R398">
         <v>15</v>
@@ -21320,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21370,7 +21370,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R400">
         <v>23</v>
@@ -21423,7 +21423,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R401">
         <v>19</v>
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21520,7 +21520,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21570,7 +21570,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R405">
         <v>18</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21717,7 +21717,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21764,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21811,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21861,7 +21861,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R410">
         <v>0</v>
@@ -21914,7 +21914,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R411">
         <v>7</v>
@@ -21967,7 +21967,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22017,7 +22017,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R413">
         <v>9</v>
@@ -22070,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22117,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22214,7 +22214,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R417">
         <v>24</v>
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22317,7 +22317,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R419">
         <v>18</v>
@@ -22367,7 +22367,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22411,7 +22411,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22599,7 +22599,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22649,7 +22649,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R426">
         <v>10</v>
@@ -22699,7 +22699,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22749,7 +22749,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R428">
         <v>16</v>
@@ -22802,7 +22802,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22852,7 +22852,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R430">
         <v>19</v>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R431">
         <v>12</v>
@@ -22955,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23002,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23096,7 +23096,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23143,7 +23143,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23193,7 +23193,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R437">
         <v>24</v>
@@ -23246,7 +23246,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23296,7 +23296,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R439">
         <v>6</v>
@@ -23346,7 +23346,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23396,7 +23396,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R441">
         <v>19</v>
@@ -23449,7 +23449,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23499,7 +23499,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R443">
         <v>23</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23602,7 +23602,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R445">
         <v>9</v>
@@ -23655,7 +23655,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R446">
         <v>22</v>
@@ -23705,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23849,7 +23849,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R450">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23946,7 +23946,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R452">
         <v>5</v>
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24046,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R454">
         <v>23</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24146,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24240,7 +24240,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24337,7 +24337,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R460">
         <v>9</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24431,7 +24431,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24478,7 +24478,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24713,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R471">
         <v>4</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24951,7 +24951,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25139,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25189,7 +25189,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R478">
         <v>4</v>
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25424,7 +25424,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25659,7 +25659,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25709,7 +25709,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R489">
         <v>3</v>
@@ -25759,7 +25759,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25856,7 +25856,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R492">
         <v>8</v>
@@ -25912,7 +25912,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R493">
         <v>4</v>
@@ -25956,10 +25956,10 @@
         <v>1</v>
       </c>
       <c r="P494" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q494">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
